--- a/WebContent/Document/画面遷移図.xlsx
+++ b/WebContent/Document/画面遷移図.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddlfm\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D21054-53E9-4521-9552-AA74FD6F812D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{1CBDDD7C-BC65-4714-8421-A35FF8B37A17}"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="24075" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -117,8 +112,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +159,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -187,7 +190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,6 +204,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -240,7 +246,7 @@
         <xdr:cNvPr id="2" name="사각형: 둥근 모서리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D8E49BB-2A3C-4AA5-93FE-AC03DC1A51EC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D8E49BB-2A3C-4AA5-93FE-AC03DC1A51EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -254,6 +260,11 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -304,7 +315,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29061BF4-15CE-4E15-9C23-DA70555C5879}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29061BF4-15CE-4E15-9C23-DA70555C5879}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -318,6 +329,11 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -368,7 +384,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B97B21F-27AD-49B2-9948-FABFFDF3AA4D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B97B21F-27AD-49B2-9948-FABFFDF3AA4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -432,7 +448,7 @@
         <xdr:cNvPr id="5" name="사각형: 둥근 모서리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7F2599-DBAE-47A5-A4B9-0A99C09220E9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7F2599-DBAE-47A5-A4B9-0A99C09220E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -446,6 +462,11 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -496,7 +517,7 @@
         <xdr:cNvPr id="7" name="직선 화살표 연결선 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974CD09E-7EA0-421D-957B-26DF0B1C5137}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974CD09E-7EA0-421D-957B-26DF0B1C5137}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -549,7 +570,7 @@
         <xdr:cNvPr id="10" name="연결선: 꺾임 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{313635C6-7CDF-4449-9C14-B14C48C06087}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{313635C6-7CDF-4449-9C14-B14C48C06087}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -602,7 +623,7 @@
         <xdr:cNvPr id="11" name="연결선: 꺾임 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800AEB24-B11B-4DD7-90C8-95E57A22998A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800AEB24-B11B-4DD7-90C8-95E57A22998A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -655,7 +676,7 @@
         <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7476259D-9A7F-4B34-83DE-F80D39812C00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7476259D-9A7F-4B34-83DE-F80D39812C00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -669,6 +690,11 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -719,7 +745,7 @@
         <xdr:cNvPr id="15" name="사각형: 둥근 모서리 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E89C130-4F71-423E-B508-B6BE96203286}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E89C130-4F71-423E-B508-B6BE96203286}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -733,6 +759,11 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -783,7 +814,7 @@
         <xdr:cNvPr id="16" name="연결선: 꺾임 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9DB8EFD-EDC9-433C-9D8F-0D8FAC68973C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9DB8EFD-EDC9-433C-9D8F-0D8FAC68973C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +870,7 @@
         <xdr:cNvPr id="19" name="연결선: 꺾임 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{422C5E8F-B3D6-4EB0-867A-1974BC2A5C74}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{422C5E8F-B3D6-4EB0-867A-1974BC2A5C74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -897,7 +928,7 @@
         <xdr:cNvPr id="23" name="직선 화살표 연결선 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A1C4F2F-CFBB-4207-800F-9B7BAE7A234B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A1C4F2F-CFBB-4207-800F-9B7BAE7A234B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -953,7 +984,7 @@
         <xdr:cNvPr id="29" name="사각형: 둥근 모서리 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FE1AA0-3AC3-4771-8960-459D850CC61F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FE1AA0-3AC3-4771-8960-459D850CC61F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1026,7 +1057,7 @@
         <xdr:cNvPr id="30" name="사각형: 둥근 모서리 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCBAAC7-9704-4806-BDA4-247B5BC1BFC2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCBAAC7-9704-4806-BDA4-247B5BC1BFC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1090,7 +1121,7 @@
         <xdr:cNvPr id="31" name="직선 화살표 연결선 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6662C98D-101B-4B8A-B513-4C77F75CCF6F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6662C98D-101B-4B8A-B513-4C77F75CCF6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1146,7 +1177,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378DB69D-0873-43CC-AD15-0754DC18357B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378DB69D-0873-43CC-AD15-0754DC18357B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,7 +1233,7 @@
         <xdr:cNvPr id="37" name="사각형: 둥근 모서리 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937A59CC-821A-4007-ABFF-EF06493FBE97}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937A59CC-821A-4007-ABFF-EF06493FBE97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1266,7 +1297,7 @@
         <xdr:cNvPr id="38" name="사각형: 둥근 모서리 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494CB609-321E-432C-BE3A-22FDEF7C00D9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494CB609-321E-432C-BE3A-22FDEF7C00D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,7 +1361,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469C53D7-F420-4AAE-9F11-C43D0F488D5F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469C53D7-F420-4AAE-9F11-C43D0F488D5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1417,7 @@
         <xdr:cNvPr id="44" name="연결선: 꺾임 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49EAE2A-9B14-4823-A579-B14E14AFFE92}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49EAE2A-9B14-4823-A579-B14E14AFFE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1475,7 @@
         <xdr:cNvPr id="47" name="연결선: 꺾임 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C92646-DAA2-4008-9C77-25F086201CE3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C92646-DAA2-4008-9C77-25F086201CE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1531,7 @@
         <xdr:cNvPr id="61" name="연결선: 꺾임 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD76B45-B7DA-43AF-ADFF-E691F4D79F79}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD76B45-B7DA-43AF-ADFF-E691F4D79F79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1556,7 +1587,7 @@
         <xdr:cNvPr id="63" name="사각형: 둥근 모서리 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1740E128-42FE-4122-9649-671C3085537E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1740E128-42FE-4122-9649-671C3085537E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1651,7 @@
         <xdr:cNvPr id="69" name="직선 화살표 연결선 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7BC53C-8C0B-4B5D-842A-2FEA40EBC46C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7BC53C-8C0B-4B5D-842A-2FEA40EBC46C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1707,7 @@
         <xdr:cNvPr id="74" name="사각형: 둥근 모서리 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E397C985-A628-4282-856E-BB9F1387B040}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E397C985-A628-4282-856E-BB9F1387B040}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,7 +1771,7 @@
         <xdr:cNvPr id="75" name="직선 화살표 연결선 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D14C2FB-68F3-484A-AC53-7D4D95E46DF8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D14C2FB-68F3-484A-AC53-7D4D95E46DF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1796,7 +1827,7 @@
         <xdr:cNvPr id="76" name="연결선: 꺾임 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B4E5C5-0E31-490C-8791-B00EC75E1E69}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B4E5C5-0E31-490C-8791-B00EC75E1E69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1883,7 @@
         <xdr:cNvPr id="77" name="연결선: 꺾임 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817AE7F8-36A3-410A-AD49-9152DE5C29D9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817AE7F8-36A3-410A-AD49-9152DE5C29D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,7 +1943,7 @@
         <xdr:cNvPr id="81" name="사각형: 둥근 모서리 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5A3E3D-176A-46C3-BAEC-EB09270791EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5A3E3D-176A-46C3-BAEC-EB09270791EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +2007,7 @@
         <xdr:cNvPr id="82" name="사각형: 둥근 모서리 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4234D09A-C59C-4E26-9801-0EEB6A2D616B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4234D09A-C59C-4E26-9801-0EEB6A2D616B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2049,7 +2080,7 @@
         <xdr:cNvPr id="95" name="연결선: 꺾임 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6984AFF4-1DEA-4D77-BCD9-8CF8C808CA2C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6984AFF4-1DEA-4D77-BCD9-8CF8C808CA2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2139,7 @@
         <xdr:cNvPr id="100" name="연결선: 꺾임 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD851A94-4FBF-4C77-BD88-11D66AD5DDB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD851A94-4FBF-4C77-BD88-11D66AD5DDB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2168,7 +2199,7 @@
         <xdr:cNvPr id="103" name="사각형: 둥근 모서리 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68467765-8D85-4FC2-997A-3BBE56DDABB7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68467765-8D85-4FC2-997A-3BBE56DDABB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2263,7 @@
         <xdr:cNvPr id="108" name="사각형: 둥근 모서리 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62239E88-8E17-4B66-A678-7983A12382E7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62239E88-8E17-4B66-A678-7983A12382E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2336,7 @@
         <xdr:cNvPr id="110" name="연결선: 꺾임 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A6E817-4CF8-4DD0-82DD-F9BC28C06C55}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A6E817-4CF8-4DD0-82DD-F9BC28C06C55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2396,7 @@
         <xdr:cNvPr id="114" name="직선 화살표 연결선 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FB45DA-D1D5-495B-A35C-DC6BD6106148}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1FB45DA-D1D5-495B-A35C-DC6BD6106148}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2421,7 +2452,7 @@
         <xdr:cNvPr id="117" name="사각형: 둥근 모서리 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9868B86-A53B-4192-98E7-85BC1098FD2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9868B86-A53B-4192-98E7-85BC1098FD2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,6 +2466,11 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2484,7 +2520,7 @@
         <xdr:cNvPr id="118" name="사각형: 둥근 모서리 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D66DF57-7D21-4EA9-A347-8E0AB1DC9EBC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D66DF57-7D21-4EA9-A347-8E0AB1DC9EBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,6 +2534,11 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2548,7 +2589,7 @@
         <xdr:cNvPr id="119" name="직선 화살표 연결선 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A459D315-06C5-43DB-B100-99F37D3D486B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A459D315-06C5-43DB-B100-99F37D3D486B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2605,7 +2646,7 @@
         <xdr:cNvPr id="125" name="사각형: 둥근 모서리 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E625900-D8F9-4AD5-942C-CBFC85D75DFA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E625900-D8F9-4AD5-942C-CBFC85D75DFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,6 +2660,11 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2668,7 +2714,7 @@
         <xdr:cNvPr id="126" name="연결선: 꺾임 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E25028D-C022-4ADF-B257-605993DAFABC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E25028D-C022-4ADF-B257-605993DAFABC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2724,7 +2770,7 @@
         <xdr:cNvPr id="129" name="사각형: 둥근 모서리 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC6A551-735B-4F81-B8EC-DB5AC1F9DBD1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC6A551-735B-4F81-B8EC-DB5AC1F9DBD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,6 +2784,11 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2787,7 +2838,7 @@
         <xdr:cNvPr id="130" name="직선 화살표 연결선 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D688C87-2729-45AA-A768-405955FB984C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D688C87-2729-45AA-A768-405955FB984C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2872,7 +2923,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2924,7 +2975,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3118,17 +3169,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40435E5D-E323-4090-8E0A-074039550C19}">
-  <dimension ref="A1:Q102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -3136,7 +3187,7 @@
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:18">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3144,7 +3195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:18">
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3152,16 +3203,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:18">
       <c r="E11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="1"/>
+      <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:18">
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="5:17">
+      <c r="P17" s="5"/>
     </row>
     <row r="19" spans="5:17">
       <c r="E19" s="3" t="s">
@@ -3279,8 +3337,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{FF574B24-16DA-40DB-8897-3D3E1024D036}"/>
-    <hyperlink ref="B45" r:id="rId2" xr:uid="{FD18B05D-1BF9-4C4E-9237-0E82AB2BFE79}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B45" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/WebContent/Document/画面遷移図.xlsx
+++ b/WebContent/Document/画面遷移図.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="24075" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="22185" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,6 +398,11 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -998,6 +1003,11 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
